--- a/rat/report.xlsx
+++ b/rat/report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Blocks</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Factor</t>
+  </si>
+  <si>
+    <t>1..548</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>RAT Activated</t>
   </si>
 </sst>
 </file>
@@ -120,6 +129,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Analysis</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -134,11 +173,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -153,133 +192,178 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RAT Activated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:pattFill prst="pct90">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$14</c:f>
+              <c:f>Sheet1!$S$40:$S$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$14</c:f>
+              <c:f>Sheet1!$T$40:$T$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.1938461538461542</c:v>
+                  <c:v>5.2129000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1684867394695786</c:v>
+                  <c:v>6.5319000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1826722338204592</c:v>
+                  <c:v>10.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2568000000000001</c:v>
+                  <c:v>13.037000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2581261950286802</c:v>
+                  <c:v>26.084</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.235200845665962</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.209815398469158</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.2203322784810133</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.234132581100142</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.1130653266331665</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.1448134739493154</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.1417981072555206</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.0024068767908307</c:v>
+                  <c:v>52.146000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$40:$S$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$40:$U$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1673999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -289,11 +373,110 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239475488"/>
-        <c:axId val="239476608"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="239475488"/>
+        <c:gapWidth val="269"/>
+        <c:axId val="265347744"/>
+        <c:axId val="265345504"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Factor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$40:$S$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$40:$V$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2244000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2278000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2225999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2211999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2293000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2281000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="265347744"/>
+        <c:axId val="265345504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="265347744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,6 +496,80 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ME</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>ga Bytes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -322,8 +579,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -338,8 +595,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -350,12 +607,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239476608"/>
+        <c:crossAx val="265345504"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="239476608"/>
+        <c:axId val="265345504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,20 +635,83 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -400,8 +723,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -412,10 +735,47 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239475488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossAx val="265347744"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -443,8 +803,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -534,18 +894,18 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -553,16 +913,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -575,7 +935,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -591,7 +951,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -599,8 +959,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -634,36 +994,62 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -675,18 +1061,21 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -695,7 +1084,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
@@ -715,20 +1104,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -738,7 +1125,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -747,14 +1134,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -763,17 +1149,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -782,17 +1167,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -801,21 +1185,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -834,17 +1212,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -853,17 +1230,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -872,17 +1248,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -892,8 +1267,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -903,7 +1278,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -911,7 +1286,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -920,10 +1295,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -931,17 +1317,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -951,27 +1337,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -981,8 +1366,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -992,20 +1377,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1015,21 +1399,10 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1037,14 +1410,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1053,20 +1420,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38102</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>388327</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1347,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="I15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1725,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1386,8 +1753,35 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1">
+        <v>2</v>
+      </c>
+      <c r="P1">
+        <v>3</v>
+      </c>
+      <c r="Q1">
+        <v>4</v>
+      </c>
+      <c r="R1">
+        <v>5</v>
+      </c>
+      <c r="S1">
+        <v>6</v>
+      </c>
+      <c r="T1">
+        <v>7</v>
+      </c>
+      <c r="U1">
+        <v>8</v>
+      </c>
+      <c r="V1">
+        <v>9</v>
+      </c>
+      <c r="W1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1423,20 +1817,8 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <f>G2</f>
-        <v>0.32499999999999996</v>
-      </c>
-      <c r="M2">
-        <f>H2</f>
-        <v>1.363</v>
-      </c>
-      <c r="N2">
-        <f>I2</f>
-        <v>4.1938461538461542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1472,20 +1854,8 @@
       <c r="K3">
         <v>2</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L11" si="5">G3</f>
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M11" si="6">H3</f>
-        <v>2.6719999999999997</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N11" si="7">I3</f>
-        <v>4.1684867394695786</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1521,20 +1891,8 @@
       <c r="K4">
         <v>3</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="5"/>
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="6"/>
-        <v>4.0069999999999997</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="7"/>
-        <v>4.1826722338204592</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1570,20 +1928,39 @@
       <c r="K5">
         <v>4</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
-      </c>
       <c r="M5">
-        <f t="shared" si="6"/>
-        <v>5.3209999999999997</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="7"/>
-        <v>4.2568000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <f>AVERAGE(O5:W5)</f>
+        <v>5.2128888888888882</v>
+      </c>
+      <c r="O5">
+        <v>5.218</v>
+      </c>
+      <c r="P5">
+        <v>5.2119999999999997</v>
+      </c>
+      <c r="Q5">
+        <v>5.2130000000000001</v>
+      </c>
+      <c r="R5">
+        <v>5.2160000000000002</v>
+      </c>
+      <c r="S5">
+        <v>5.2050000000000001</v>
+      </c>
+      <c r="T5">
+        <v>5.22</v>
+      </c>
+      <c r="U5">
+        <v>5.2110000000000003</v>
+      </c>
+      <c r="V5">
+        <v>5.2089999999999996</v>
+      </c>
+      <c r="W5">
+        <v>5.2119999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1619,20 +1996,39 @@
       <c r="K6">
         <v>5</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="5"/>
-        <v>1.5690000000000002</v>
-      </c>
       <c r="M6">
-        <f t="shared" si="6"/>
-        <v>6.681</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="7"/>
-        <v>4.2581261950286802</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M2:M10" si="5">AVERAGE(O6:W6)</f>
+        <v>6.53188888888889</v>
+      </c>
+      <c r="O6">
+        <v>6.5289999999999999</v>
+      </c>
+      <c r="P6">
+        <v>6.5380000000000003</v>
+      </c>
+      <c r="Q6">
+        <v>6.5330000000000004</v>
+      </c>
+      <c r="R6">
+        <v>6.532</v>
+      </c>
+      <c r="S6">
+        <v>6.5339999999999998</v>
+      </c>
+      <c r="T6">
+        <v>6.5270000000000001</v>
+      </c>
+      <c r="U6">
+        <v>6.5289999999999999</v>
+      </c>
+      <c r="V6">
+        <v>6.5309999999999997</v>
+      </c>
+      <c r="W6">
+        <v>6.5339999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1668,20 +2064,8 @@
       <c r="K7">
         <v>6</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="5"/>
-        <v>1.8920000000000001</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="6"/>
-        <v>8.0129999999999999</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="7"/>
-        <v>4.235200845665962</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1717,20 +2101,8 @@
       <c r="K8">
         <v>7</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="5"/>
-        <v>2.2210000000000001</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
-        <v>9.35</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="7"/>
-        <v>4.209815398469158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1766,20 +2138,33 @@
       <c r="K9">
         <v>8</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="5"/>
-        <v>2.5279999999999996</v>
-      </c>
       <c r="M9">
-        <f t="shared" si="6"/>
-        <v>10.669</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="7"/>
-        <v>4.2203322784810133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <f>AVERAGE(O9:U9)</f>
+        <v>10.430285714285715</v>
+      </c>
+      <c r="O9">
+        <v>10.428000000000001</v>
+      </c>
+      <c r="P9">
+        <v>10.428000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>10.438000000000001</v>
+      </c>
+      <c r="R9">
+        <v>10.432</v>
+      </c>
+      <c r="S9">
+        <v>10.428000000000001</v>
+      </c>
+      <c r="T9">
+        <v>10.428000000000001</v>
+      </c>
+      <c r="U9">
+        <v>10.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1815,20 +2200,8 @@
       <c r="K10">
         <v>9</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="5"/>
-        <v>2.8359999999999994</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="6"/>
-        <v>12.008000000000001</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="7"/>
-        <v>4.234132581100142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1864,20 +2237,39 @@
       <c r="K11">
         <v>10</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="5"/>
-        <v>3.1839999999999997</v>
-      </c>
       <c r="M11">
-        <f t="shared" si="6"/>
-        <v>13.096</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="7"/>
-        <v>4.1130653266331665</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <f>AVERAGE(O11:W11)</f>
+        <v>13.037444444444443</v>
+      </c>
+      <c r="O11">
+        <v>13.041</v>
+      </c>
+      <c r="P11">
+        <v>13.04</v>
+      </c>
+      <c r="Q11">
+        <v>13.036</v>
+      </c>
+      <c r="R11">
+        <v>13.04</v>
+      </c>
+      <c r="S11">
+        <v>13.026999999999999</v>
+      </c>
+      <c r="T11">
+        <v>13.038</v>
+      </c>
+      <c r="U11">
+        <v>13.041</v>
+      </c>
+      <c r="V11">
+        <v>13.034000000000001</v>
+      </c>
+      <c r="W11">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1892,17 +2284,33 @@
       <c r="K12">
         <v>20</v>
       </c>
-      <c r="L12">
-        <v>6.3529999999999998</v>
-      </c>
       <c r="M12">
-        <v>26.332000000000001</v>
-      </c>
-      <c r="N12">
-        <v>4.1448134739493154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <f>AVERAGE(O12:U12)</f>
+        <v>26.084</v>
+      </c>
+      <c r="O12">
+        <v>26.097000000000001</v>
+      </c>
+      <c r="P12">
+        <v>26.077000000000002</v>
+      </c>
+      <c r="Q12">
+        <v>26.087</v>
+      </c>
+      <c r="R12">
+        <v>26.077000000000002</v>
+      </c>
+      <c r="S12">
+        <v>26.084</v>
+      </c>
+      <c r="T12">
+        <v>26.088999999999999</v>
+      </c>
+      <c r="U12">
+        <v>26.077000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1917,17 +2325,27 @@
       <c r="K13">
         <v>40</v>
       </c>
-      <c r="L13">
-        <v>12.68</v>
-      </c>
       <c r="M13">
-        <v>52.518000000000001</v>
-      </c>
-      <c r="N13">
-        <v>4.1417981072555206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <f>AVERAGE(O13:S13)</f>
+        <v>52.145600000000002</v>
+      </c>
+      <c r="O13">
+        <v>52.177</v>
+      </c>
+      <c r="P13">
+        <v>52.161999999999999</v>
+      </c>
+      <c r="Q13">
+        <v>52.131999999999998</v>
+      </c>
+      <c r="R13">
+        <v>52.122999999999998</v>
+      </c>
+      <c r="S13">
+        <v>52.134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1942,17 +2360,30 @@
       <c r="K14">
         <v>80</v>
       </c>
-      <c r="L14">
-        <v>26.175000000000004</v>
-      </c>
       <c r="M14">
-        <v>104.76300000000001</v>
-      </c>
-      <c r="N14">
-        <v>4.0024068767908307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <f>AVERAGE(O14:T14)</f>
+        <v>104.64183333333334</v>
+      </c>
+      <c r="O14">
+        <v>104.251</v>
+      </c>
+      <c r="P14">
+        <v>105.029</v>
+      </c>
+      <c r="Q14">
+        <v>104.82899999999999</v>
+      </c>
+      <c r="R14">
+        <v>104.52800000000001</v>
+      </c>
+      <c r="S14">
+        <v>104.52200000000001</v>
+      </c>
+      <c r="T14">
+        <v>104.69199999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1965,7 +2396,7 @@
         <v>917504</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1978,7 +2409,7 @@
         <v>983040</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1991,7 +2422,7 @@
         <v>1048576</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2004,7 +2435,7 @@
         <v>1114112</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2016,8 +2447,11 @@
         <f t="shared" si="1"/>
         <v>1179648</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2029,8 +2463,11 @@
         <f t="shared" si="1"/>
         <v>1245184</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2063,8 +2500,11 @@
         <f t="shared" si="4"/>
         <v>4.1448134739493154</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2076,8 +2516,39 @@
         <f t="shared" si="1"/>
         <v>1376256</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <f>AVERAGE(O22:V22)</f>
+        <v>1.2455000000000003</v>
+      </c>
+      <c r="O22">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="P22">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="Q22">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="R22">
+        <v>1.2470000000000001</v>
+      </c>
+      <c r="S22">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="T22">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="U22">
+        <v>1.2470000000000001</v>
+      </c>
+      <c r="V22">
+        <v>1.2450000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2089,8 +2560,42 @@
         <f t="shared" si="1"/>
         <v>1441792</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <f>AVERAGE(O23:W23)</f>
+        <v>1.5437500000000002</v>
+      </c>
+      <c r="O23">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="P23">
+        <v>1.54</v>
+      </c>
+      <c r="Q23">
+        <v>1.544</v>
+      </c>
+      <c r="R23">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="S23">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="T23">
+        <v>1.5469999999999999</v>
+      </c>
+      <c r="U23">
+        <v>1.544</v>
+      </c>
+      <c r="V23">
+        <v>1.544</v>
+      </c>
+      <c r="W23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2102,8 +2607,11 @@
         <f t="shared" si="1"/>
         <v>1507328</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2115,8 +2623,11 @@
         <f t="shared" si="1"/>
         <v>1572864</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2128,8 +2639,42 @@
         <f t="shared" si="1"/>
         <v>1638400</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>8</v>
+      </c>
+      <c r="M26">
+        <f>AVERAGE(O26:W26)</f>
+        <v>2.4701111111111111</v>
+      </c>
+      <c r="O26">
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="P26">
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="Q26">
+        <v>2.4660000000000002</v>
+      </c>
+      <c r="R26">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="S26">
+        <v>2.4740000000000002</v>
+      </c>
+      <c r="T26">
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="U26">
+        <v>2.4689999999999999</v>
+      </c>
+      <c r="V26">
+        <v>2.476</v>
+      </c>
+      <c r="W26">
+        <v>2.4750000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2141,8 +2686,11 @@
         <f t="shared" si="1"/>
         <v>1703936</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2154,8 +2702,42 @@
         <f t="shared" si="1"/>
         <v>1769472</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <f>AVERAGE(O28:W28)</f>
+        <v>3.0885555555555562</v>
+      </c>
+      <c r="O28">
+        <v>3.0910000000000002</v>
+      </c>
+      <c r="P28">
+        <v>3.0859999999999999</v>
+      </c>
+      <c r="Q28">
+        <v>3.085</v>
+      </c>
+      <c r="R28">
+        <v>3.089</v>
+      </c>
+      <c r="S28">
+        <v>3.0859999999999999</v>
+      </c>
+      <c r="T28">
+        <v>3.0880000000000001</v>
+      </c>
+      <c r="U28">
+        <v>3.085</v>
+      </c>
+      <c r="V28">
+        <v>3.0939999999999999</v>
+      </c>
+      <c r="W28">
+        <v>3.093</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2167,8 +2749,42 @@
         <f t="shared" si="1"/>
         <v>1835008</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>20</v>
+      </c>
+      <c r="M29">
+        <f>AVERAGE(O29:W29)</f>
+        <v>6.1674444444444454</v>
+      </c>
+      <c r="O29">
+        <v>6.1539999999999999</v>
+      </c>
+      <c r="P29">
+        <v>6.1479999999999997</v>
+      </c>
+      <c r="Q29">
+        <v>6.1470000000000002</v>
+      </c>
+      <c r="R29">
+        <v>6.1520000000000001</v>
+      </c>
+      <c r="S29">
+        <v>6.1689999999999996</v>
+      </c>
+      <c r="T29">
+        <v>6.1619999999999999</v>
+      </c>
+      <c r="U29">
+        <v>6.1669999999999998</v>
+      </c>
+      <c r="V29">
+        <v>6.2050000000000001</v>
+      </c>
+      <c r="W29">
+        <v>6.2030000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2180,8 +2796,27 @@
         <f t="shared" si="1"/>
         <v>1900544</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>40</v>
+      </c>
+      <c r="M30">
+        <f>AVERAGE(O30:R30)</f>
+        <v>12.332999999999998</v>
+      </c>
+      <c r="O30">
+        <v>12.345000000000001</v>
+      </c>
+      <c r="P30">
+        <v>12.332000000000001</v>
+      </c>
+      <c r="Q30">
+        <v>12.321999999999999</v>
+      </c>
+      <c r="R30">
+        <v>12.333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2193,8 +2828,27 @@
         <f t="shared" si="1"/>
         <v>1966080</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>80</v>
+      </c>
+      <c r="M31">
+        <f>AVERAGE(O31:R31)</f>
+        <v>24.70675</v>
+      </c>
+      <c r="O31">
+        <v>24.713000000000001</v>
+      </c>
+      <c r="P31">
+        <v>24.710999999999999</v>
+      </c>
+      <c r="Q31">
+        <v>24.687999999999999</v>
+      </c>
+      <c r="R31">
+        <v>24.715</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2207,7 +2861,7 @@
         <v>2031616</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2220,7 +2874,7 @@
         <v>2097152</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2233,7 +2887,7 @@
         <v>2162688</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2246,7 +2900,7 @@
         <v>2228224</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2259,7 +2913,7 @@
         <v>2293760</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2271,8 +2925,11 @@
         <f t="shared" si="1"/>
         <v>2359296</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2284,8 +2941,11 @@
         <f t="shared" si="1"/>
         <v>2424832</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2297,8 +2957,20 @@
         <f t="shared" si="1"/>
         <v>2490368</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U39" t="s">
+        <v>10</v>
+      </c>
+      <c r="V39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2310,8 +2982,33 @@
         <f t="shared" si="1"/>
         <v>2555904</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>5.2128888888888882</v>
+      </c>
+      <c r="N40">
+        <v>1.234</v>
+      </c>
+      <c r="O40">
+        <f>M40/N40</f>
+        <v>4.2243832162794881</v>
+      </c>
+      <c r="S40">
+        <v>4</v>
+      </c>
+      <c r="T40">
+        <v>5.2129000000000003</v>
+      </c>
+      <c r="U40">
+        <v>1.234</v>
+      </c>
+      <c r="V40">
+        <v>4.2244000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2333,19 +3030,44 @@
         <v>58.360999999999997</v>
       </c>
       <c r="G41">
-        <f t="shared" ref="G22:G41" si="8">E41-D41</f>
+        <f t="shared" ref="G41" si="6">E41-D41</f>
         <v>12.68</v>
       </c>
       <c r="H41">
-        <f t="shared" ref="H22:H41" si="9">F41-D41</f>
+        <f t="shared" ref="H41" si="7">F41-D41</f>
         <v>52.518000000000001</v>
       </c>
       <c r="I41">
-        <f t="shared" ref="I22:I41" si="10">H41/G41</f>
+        <f t="shared" ref="I41" si="8">H41/G41</f>
         <v>4.1417981072555206</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>6.53188888888889</v>
+      </c>
+      <c r="N41">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="O41">
+        <f t="shared" ref="O41:O49" si="9">M41/N41</f>
+        <v>4.2277597986335858</v>
+      </c>
+      <c r="S41">
+        <v>5</v>
+      </c>
+      <c r="T41">
+        <v>6.5319000000000003</v>
+      </c>
+      <c r="U41">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="V41">
+        <v>4.2278000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2357,8 +3079,23 @@
         <f t="shared" si="1"/>
         <v>2686976</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>6</v>
+      </c>
+      <c r="S42">
+        <v>8</v>
+      </c>
+      <c r="T42">
+        <v>10.43</v>
+      </c>
+      <c r="U42">
+        <v>2.4701</v>
+      </c>
+      <c r="V42">
+        <v>4.2225999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2370,8 +3107,23 @@
         <f t="shared" si="1"/>
         <v>2752512</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>7</v>
+      </c>
+      <c r="S43">
+        <v>10</v>
+      </c>
+      <c r="T43">
+        <v>13.037000000000001</v>
+      </c>
+      <c r="U43">
+        <v>3.0886</v>
+      </c>
+      <c r="V43">
+        <v>4.2211999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2383,8 +3135,33 @@
         <f t="shared" si="1"/>
         <v>2818048</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>8</v>
+      </c>
+      <c r="M44">
+        <v>10.430285714285715</v>
+      </c>
+      <c r="N44">
+        <v>2.4701111111111111</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="9"/>
+        <v>4.2225977881593915</v>
+      </c>
+      <c r="S44">
+        <v>20</v>
+      </c>
+      <c r="T44">
+        <v>26.084</v>
+      </c>
+      <c r="U44">
+        <v>6.1673999999999998</v>
+      </c>
+      <c r="V44">
+        <v>4.2293000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2396,8 +3173,23 @@
         <f t="shared" si="1"/>
         <v>2883584</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>9</v>
+      </c>
+      <c r="S45">
+        <v>40</v>
+      </c>
+      <c r="T45">
+        <v>52.146000000000001</v>
+      </c>
+      <c r="U45">
+        <v>12.333</v>
+      </c>
+      <c r="V45">
+        <v>4.2281000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2409,8 +3201,21 @@
         <f t="shared" si="1"/>
         <v>2949120</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>13.037444444444443</v>
+      </c>
+      <c r="N46">
+        <v>3.0886</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="9"/>
+        <v>4.2211501795131916</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2422,8 +3227,21 @@
         <f t="shared" si="1"/>
         <v>3014656</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>20</v>
+      </c>
+      <c r="M47">
+        <v>26.084</v>
+      </c>
+      <c r="N47">
+        <v>6.1673999999999998</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="9"/>
+        <v>4.2293348899049841</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2435,8 +3253,21 @@
         <f t="shared" si="1"/>
         <v>3080192</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>40</v>
+      </c>
+      <c r="M48">
+        <v>52.145600000000002</v>
+      </c>
+      <c r="N48">
+        <v>12.332999999999998</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="9"/>
+        <v>4.2281358955647459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2448,8 +3279,21 @@
         <f t="shared" si="1"/>
         <v>3145728</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>80</v>
+      </c>
+      <c r="M49">
+        <v>104.64183333333334</v>
+      </c>
+      <c r="N49">
+        <v>24.70675</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="9"/>
+        <v>4.2353540361776982</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2462,7 +3306,7 @@
         <v>3211264</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2475,7 +3319,7 @@
         <v>3276800</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2488,7 +3332,7 @@
         <v>3342336</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2501,7 +3345,7 @@
         <v>3407872</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2514,7 +3358,7 @@
         <v>3473408</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2527,7 +3371,7 @@
         <v>3538944</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2540,7 +3384,7 @@
         <v>3604480</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2553,7 +3397,7 @@
         <v>3670016</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2566,7 +3410,7 @@
         <v>3735552</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2579,7 +3423,7 @@
         <v>3801088</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2592,7 +3436,7 @@
         <v>3866624</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2605,7 +3449,7 @@
         <v>3932160</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2618,7 +3462,7 @@
         <v>3997696</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2631,7 +3475,7 @@
         <v>4063232</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2675,11 +3519,11 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B101" si="11">A67*1024*1024</f>
+        <f t="shared" ref="B67:B101" si="10">A67*1024*1024</f>
         <v>69206016</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C101" si="12">B67/16</f>
+        <f t="shared" ref="C67:C101" si="11">B67/16</f>
         <v>4325376</v>
       </c>
     </row>
@@ -2688,11 +3532,11 @@
         <v>67</v>
       </c>
       <c r="B68">
+        <f t="shared" si="10"/>
+        <v>70254592</v>
+      </c>
+      <c r="C68">
         <f t="shared" si="11"/>
-        <v>70254592</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="12"/>
         <v>4390912</v>
       </c>
     </row>
@@ -2701,11 +3545,11 @@
         <v>68</v>
       </c>
       <c r="B69">
+        <f t="shared" si="10"/>
+        <v>71303168</v>
+      </c>
+      <c r="C69">
         <f t="shared" si="11"/>
-        <v>71303168</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="12"/>
         <v>4456448</v>
       </c>
     </row>
@@ -2714,11 +3558,11 @@
         <v>69</v>
       </c>
       <c r="B70">
+        <f t="shared" si="10"/>
+        <v>72351744</v>
+      </c>
+      <c r="C70">
         <f t="shared" si="11"/>
-        <v>72351744</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="12"/>
         <v>4521984</v>
       </c>
     </row>
@@ -2727,11 +3571,11 @@
         <v>70</v>
       </c>
       <c r="B71">
+        <f t="shared" si="10"/>
+        <v>73400320</v>
+      </c>
+      <c r="C71">
         <f t="shared" si="11"/>
-        <v>73400320</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="12"/>
         <v>4587520</v>
       </c>
     </row>
@@ -2740,11 +3584,11 @@
         <v>71</v>
       </c>
       <c r="B72">
+        <f t="shared" si="10"/>
+        <v>74448896</v>
+      </c>
+      <c r="C72">
         <f t="shared" si="11"/>
-        <v>74448896</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="12"/>
         <v>4653056</v>
       </c>
     </row>
@@ -2753,11 +3597,11 @@
         <v>72</v>
       </c>
       <c r="B73">
+        <f t="shared" si="10"/>
+        <v>75497472</v>
+      </c>
+      <c r="C73">
         <f t="shared" si="11"/>
-        <v>75497472</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="12"/>
         <v>4718592</v>
       </c>
     </row>
@@ -2766,11 +3610,11 @@
         <v>73</v>
       </c>
       <c r="B74">
+        <f t="shared" si="10"/>
+        <v>76546048</v>
+      </c>
+      <c r="C74">
         <f t="shared" si="11"/>
-        <v>76546048</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="12"/>
         <v>4784128</v>
       </c>
     </row>
@@ -2779,11 +3623,11 @@
         <v>74</v>
       </c>
       <c r="B75">
+        <f t="shared" si="10"/>
+        <v>77594624</v>
+      </c>
+      <c r="C75">
         <f t="shared" si="11"/>
-        <v>77594624</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="12"/>
         <v>4849664</v>
       </c>
     </row>
@@ -2792,11 +3636,11 @@
         <v>75</v>
       </c>
       <c r="B76">
+        <f t="shared" si="10"/>
+        <v>78643200</v>
+      </c>
+      <c r="C76">
         <f t="shared" si="11"/>
-        <v>78643200</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="12"/>
         <v>4915200</v>
       </c>
     </row>
@@ -2805,11 +3649,11 @@
         <v>76</v>
       </c>
       <c r="B77">
+        <f t="shared" si="10"/>
+        <v>79691776</v>
+      </c>
+      <c r="C77">
         <f t="shared" si="11"/>
-        <v>79691776</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="12"/>
         <v>4980736</v>
       </c>
     </row>
@@ -2818,11 +3662,11 @@
         <v>77</v>
       </c>
       <c r="B78">
+        <f t="shared" si="10"/>
+        <v>80740352</v>
+      </c>
+      <c r="C78">
         <f t="shared" si="11"/>
-        <v>80740352</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="12"/>
         <v>5046272</v>
       </c>
     </row>
@@ -2831,11 +3675,11 @@
         <v>78</v>
       </c>
       <c r="B79">
+        <f t="shared" si="10"/>
+        <v>81788928</v>
+      </c>
+      <c r="C79">
         <f t="shared" si="11"/>
-        <v>81788928</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="12"/>
         <v>5111808</v>
       </c>
     </row>
@@ -2844,11 +3688,11 @@
         <v>79</v>
       </c>
       <c r="B80">
+        <f t="shared" si="10"/>
+        <v>82837504</v>
+      </c>
+      <c r="C80">
         <f t="shared" si="11"/>
-        <v>82837504</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="12"/>
         <v>5177344</v>
       </c>
     </row>
@@ -2857,11 +3701,11 @@
         <v>80</v>
       </c>
       <c r="B81">
+        <f t="shared" si="10"/>
+        <v>83886080</v>
+      </c>
+      <c r="C81">
         <f t="shared" si="11"/>
-        <v>83886080</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="12"/>
         <v>5242880</v>
       </c>
       <c r="D81">
@@ -2874,15 +3718,15 @@
         <v>116.611</v>
       </c>
       <c r="G81">
-        <f t="shared" ref="G42:G81" si="13">E81-D81</f>
+        <f t="shared" ref="G81" si="12">E81-D81</f>
         <v>26.175000000000004</v>
       </c>
       <c r="H81">
-        <f t="shared" ref="H42:H81" si="14">F81-D81</f>
+        <f t="shared" ref="H81" si="13">F81-D81</f>
         <v>104.76300000000001</v>
       </c>
       <c r="I81">
-        <f t="shared" ref="I42:I81" si="15">H81/G81</f>
+        <f t="shared" ref="I81" si="14">H81/G81</f>
         <v>4.0024068767908307</v>
       </c>
     </row>
@@ -2891,11 +3735,11 @@
         <v>81</v>
       </c>
       <c r="B82">
+        <f t="shared" si="10"/>
+        <v>84934656</v>
+      </c>
+      <c r="C82">
         <f t="shared" si="11"/>
-        <v>84934656</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="12"/>
         <v>5308416</v>
       </c>
     </row>
@@ -2904,11 +3748,11 @@
         <v>82</v>
       </c>
       <c r="B83">
+        <f t="shared" si="10"/>
+        <v>85983232</v>
+      </c>
+      <c r="C83">
         <f t="shared" si="11"/>
-        <v>85983232</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="12"/>
         <v>5373952</v>
       </c>
     </row>
@@ -2917,11 +3761,11 @@
         <v>83</v>
       </c>
       <c r="B84">
+        <f t="shared" si="10"/>
+        <v>87031808</v>
+      </c>
+      <c r="C84">
         <f t="shared" si="11"/>
-        <v>87031808</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="12"/>
         <v>5439488</v>
       </c>
     </row>
@@ -2930,11 +3774,11 @@
         <v>84</v>
       </c>
       <c r="B85">
+        <f t="shared" si="10"/>
+        <v>88080384</v>
+      </c>
+      <c r="C85">
         <f t="shared" si="11"/>
-        <v>88080384</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="12"/>
         <v>5505024</v>
       </c>
     </row>
@@ -2943,11 +3787,11 @@
         <v>85</v>
       </c>
       <c r="B86">
+        <f t="shared" si="10"/>
+        <v>89128960</v>
+      </c>
+      <c r="C86">
         <f t="shared" si="11"/>
-        <v>89128960</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="12"/>
         <v>5570560</v>
       </c>
     </row>
@@ -2956,11 +3800,11 @@
         <v>86</v>
       </c>
       <c r="B87">
+        <f t="shared" si="10"/>
+        <v>90177536</v>
+      </c>
+      <c r="C87">
         <f t="shared" si="11"/>
-        <v>90177536</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="12"/>
         <v>5636096</v>
       </c>
     </row>
@@ -2969,11 +3813,11 @@
         <v>87</v>
       </c>
       <c r="B88">
+        <f t="shared" si="10"/>
+        <v>91226112</v>
+      </c>
+      <c r="C88">
         <f t="shared" si="11"/>
-        <v>91226112</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="12"/>
         <v>5701632</v>
       </c>
     </row>
@@ -2982,11 +3826,11 @@
         <v>88</v>
       </c>
       <c r="B89">
+        <f t="shared" si="10"/>
+        <v>92274688</v>
+      </c>
+      <c r="C89">
         <f t="shared" si="11"/>
-        <v>92274688</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="12"/>
         <v>5767168</v>
       </c>
     </row>
@@ -2995,11 +3839,11 @@
         <v>89</v>
       </c>
       <c r="B90">
+        <f t="shared" si="10"/>
+        <v>93323264</v>
+      </c>
+      <c r="C90">
         <f t="shared" si="11"/>
-        <v>93323264</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="12"/>
         <v>5832704</v>
       </c>
     </row>
@@ -3008,11 +3852,11 @@
         <v>90</v>
       </c>
       <c r="B91">
+        <f t="shared" si="10"/>
+        <v>94371840</v>
+      </c>
+      <c r="C91">
         <f t="shared" si="11"/>
-        <v>94371840</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="12"/>
         <v>5898240</v>
       </c>
     </row>
@@ -3021,11 +3865,11 @@
         <v>91</v>
       </c>
       <c r="B92">
+        <f t="shared" si="10"/>
+        <v>95420416</v>
+      </c>
+      <c r="C92">
         <f t="shared" si="11"/>
-        <v>95420416</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="12"/>
         <v>5963776</v>
       </c>
     </row>
@@ -3034,11 +3878,11 @@
         <v>92</v>
       </c>
       <c r="B93">
+        <f t="shared" si="10"/>
+        <v>96468992</v>
+      </c>
+      <c r="C93">
         <f t="shared" si="11"/>
-        <v>96468992</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="12"/>
         <v>6029312</v>
       </c>
     </row>
@@ -3047,11 +3891,11 @@
         <v>93</v>
       </c>
       <c r="B94">
+        <f t="shared" si="10"/>
+        <v>97517568</v>
+      </c>
+      <c r="C94">
         <f t="shared" si="11"/>
-        <v>97517568</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="12"/>
         <v>6094848</v>
       </c>
     </row>
@@ -3060,11 +3904,11 @@
         <v>94</v>
       </c>
       <c r="B95">
+        <f t="shared" si="10"/>
+        <v>98566144</v>
+      </c>
+      <c r="C95">
         <f t="shared" si="11"/>
-        <v>98566144</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="12"/>
         <v>6160384</v>
       </c>
     </row>
@@ -3073,11 +3917,11 @@
         <v>95</v>
       </c>
       <c r="B96">
+        <f t="shared" si="10"/>
+        <v>99614720</v>
+      </c>
+      <c r="C96">
         <f t="shared" si="11"/>
-        <v>99614720</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="12"/>
         <v>6225920</v>
       </c>
     </row>
@@ -3086,11 +3930,11 @@
         <v>96</v>
       </c>
       <c r="B97">
+        <f t="shared" si="10"/>
+        <v>100663296</v>
+      </c>
+      <c r="C97">
         <f t="shared" si="11"/>
-        <v>100663296</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="12"/>
         <v>6291456</v>
       </c>
     </row>
@@ -3099,11 +3943,11 @@
         <v>97</v>
       </c>
       <c r="B98">
+        <f t="shared" si="10"/>
+        <v>101711872</v>
+      </c>
+      <c r="C98">
         <f t="shared" si="11"/>
-        <v>101711872</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="12"/>
         <v>6356992</v>
       </c>
     </row>
@@ -3112,11 +3956,11 @@
         <v>98</v>
       </c>
       <c r="B99">
+        <f t="shared" si="10"/>
+        <v>102760448</v>
+      </c>
+      <c r="C99">
         <f t="shared" si="11"/>
-        <v>102760448</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="12"/>
         <v>6422528</v>
       </c>
     </row>
@@ -3125,11 +3969,11 @@
         <v>99</v>
       </c>
       <c r="B100">
+        <f t="shared" si="10"/>
+        <v>103809024</v>
+      </c>
+      <c r="C100">
         <f t="shared" si="11"/>
-        <v>103809024</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="12"/>
         <v>6488064</v>
       </c>
     </row>
@@ -3138,11 +3982,11 @@
         <v>100</v>
       </c>
       <c r="B101">
+        <f t="shared" si="10"/>
+        <v>104857600</v>
+      </c>
+      <c r="C101">
         <f t="shared" si="11"/>
-        <v>104857600</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="12"/>
         <v>6553600</v>
       </c>
     </row>
